--- a/Template/SkillEffectsAbnormalStatus.xlsx
+++ b/Template/SkillEffectsAbnormalStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4CAD7-772A-4899-AFC8-2A843A6905E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329E935-BD5E-41A9-9EDC-9578FB4C93AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,13 @@
   </si>
   <si>
     <t>ProportionalDamageFromLostHp</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -389,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -402,7 +409,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -412,8 +419,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -422,6 +432,9 @@
       </c>
       <c r="C2" t="s">
         <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -433,10 +446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -505,6 +518,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/SkillEffectsAbnormalStatus.xlsx
+++ b/Template/SkillEffectsAbnormalStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329E935-BD5E-41A9-9EDC-9578FB4C93AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D4991-85A2-47EB-A2BE-3CE34C0317AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +64,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProportionalDamageFromLostHp</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
     <t>Duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbnormalStatusType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelCasting</t>
   </si>
 </sst>
 </file>
@@ -399,17 +403,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -417,24 +421,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -452,17 +456,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -490,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -504,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -518,9 +522,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
